--- a/examples/edge/Hospital mapping codebook(example).xlsx
+++ b/examples/edge/Hospital mapping codebook(example).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\研究相關\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\研究相關\code\FHIR_relation_in_FL\FHIR_part\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292BCB95-4742-4733-BE97-025C4EA8BDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635DA15E-129E-4286-BCED-11F61DE34F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Lab test</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +41,6 @@
     <t>29463-7</t>
   </si>
   <si>
-    <t>8302-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lymphocytes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,6 +73,18 @@
   </si>
   <si>
     <t>LOINC code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blood pressure panel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35094-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	8302-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B10"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -420,55 +428,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
